--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Spp1-Itga4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Spp1-Itga4.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>14.110548</v>
+        <v>10.70913233333333</v>
       </c>
       <c r="H2">
-        <v>42.331644</v>
+        <v>32.127397</v>
       </c>
       <c r="I2">
-        <v>0.001427319132920652</v>
+        <v>0.007451729107954897</v>
       </c>
       <c r="J2">
-        <v>0.001427319132920652</v>
+        <v>0.007451729107954897</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.403827</v>
+        <v>0.3331066666666667</v>
       </c>
       <c r="N2">
-        <v>1.211481</v>
+        <v>0.99932</v>
       </c>
       <c r="O2">
-        <v>0.005172149156755267</v>
+        <v>0.002125805913843485</v>
       </c>
       <c r="P2">
-        <v>0.005172149156755267</v>
+        <v>0.002125805913843485</v>
       </c>
       <c r="Q2">
-        <v>5.698220267196</v>
+        <v>3.567283374448889</v>
       </c>
       <c r="R2">
-        <v>51.283982404764</v>
+        <v>32.10555037004</v>
       </c>
       <c r="S2">
-        <v>7.382307449756206E-06</v>
+        <v>1.584092980605015E-05</v>
       </c>
       <c r="T2">
-        <v>7.382307449756207E-06</v>
+        <v>1.584092980605015E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>14.110548</v>
+        <v>10.70913233333333</v>
       </c>
       <c r="H3">
-        <v>42.331644</v>
+        <v>32.127397</v>
       </c>
       <c r="I3">
-        <v>0.001427319132920652</v>
+        <v>0.007451729107954897</v>
       </c>
       <c r="J3">
-        <v>0.001427319132920652</v>
+        <v>0.007451729107954897</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -626,22 +626,22 @@
         <v>0.412548</v>
       </c>
       <c r="O3">
-        <v>0.001761282092183924</v>
+        <v>0.0008775937418887864</v>
       </c>
       <c r="P3">
-        <v>0.001761282092183924</v>
+        <v>0.0008775937418887864</v>
       </c>
       <c r="Q3">
-        <v>1.940426118768</v>
+        <v>1.472677041950667</v>
       </c>
       <c r="R3">
-        <v>17.463835068912</v>
+        <v>13.254093377556</v>
       </c>
       <c r="S3">
-        <v>2.513911628644629E-06</v>
+        <v>6.539590831391726E-06</v>
       </c>
       <c r="T3">
-        <v>2.513911628644629E-06</v>
+        <v>6.539590831391726E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>14.110548</v>
+        <v>10.70913233333333</v>
       </c>
       <c r="H4">
-        <v>42.331644</v>
+        <v>32.127397</v>
       </c>
       <c r="I4">
-        <v>0.001427319132920652</v>
+        <v>0.007451729107954897</v>
       </c>
       <c r="J4">
-        <v>0.001427319132920652</v>
+        <v>0.007451729107954897</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>23.43656066666667</v>
+        <v>91.40156066666667</v>
       </c>
       <c r="N4">
-        <v>70.309682</v>
+        <v>274.204682</v>
       </c>
       <c r="O4">
-        <v>0.3001715771588914</v>
+        <v>0.5833025803538128</v>
       </c>
       <c r="P4">
-        <v>0.3001715771588914</v>
+        <v>0.5833025803538128</v>
       </c>
       <c r="Q4">
-        <v>330.702714241912</v>
+        <v>978.8314086525284</v>
       </c>
       <c r="R4">
-        <v>2976.324428177208</v>
+        <v>8809.482677872755</v>
       </c>
       <c r="S4">
-        <v>0.0004284406352378534</v>
+        <v>0.004346612816767707</v>
       </c>
       <c r="T4">
-        <v>0.0004284406352378534</v>
+        <v>0.004346612816767707</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>14.110548</v>
+        <v>10.70913233333333</v>
       </c>
       <c r="H5">
-        <v>42.331644</v>
+        <v>32.127397</v>
       </c>
       <c r="I5">
-        <v>0.001427319132920652</v>
+        <v>0.007451729107954897</v>
       </c>
       <c r="J5">
-        <v>0.001427319132920652</v>
+        <v>0.007451729107954897</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.4302976666666667</v>
+        <v>0.5759770000000001</v>
       </c>
       <c r="N5">
-        <v>1.290893</v>
+        <v>1.727931</v>
       </c>
       <c r="O5">
-        <v>0.005511181059720521</v>
+        <v>0.00367574544541637</v>
       </c>
       <c r="P5">
-        <v>0.005511181059720521</v>
+        <v>0.00367574544541637</v>
       </c>
       <c r="Q5">
-        <v>6.071735879788</v>
+        <v>6.168213913956335</v>
       </c>
       <c r="R5">
-        <v>54.645622918092</v>
+        <v>55.513925225607</v>
       </c>
       <c r="S5">
-        <v>7.866214171529013E-06</v>
+        <v>2.73906593290418E-05</v>
       </c>
       <c r="T5">
-        <v>7.866214171529013E-06</v>
+        <v>2.73906593290418E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>14.110548</v>
+        <v>10.70913233333333</v>
       </c>
       <c r="H6">
-        <v>42.331644</v>
+        <v>32.127397</v>
       </c>
       <c r="I6">
-        <v>0.001427319132920652</v>
+        <v>0.007451729107954897</v>
       </c>
       <c r="J6">
-        <v>0.001427319132920652</v>
+        <v>0.007451729107954897</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>53.66901333333334</v>
+        <v>64.24849033333334</v>
       </c>
       <c r="N6">
-        <v>161.00704</v>
+        <v>192.745471</v>
       </c>
       <c r="O6">
-        <v>0.6873838105324488</v>
+        <v>0.4100182745450386</v>
       </c>
       <c r="P6">
-        <v>0.6873838105324488</v>
+        <v>0.4100182745450385</v>
       </c>
       <c r="Q6">
-        <v>757.29918875264</v>
+        <v>688.0455851965543</v>
       </c>
       <c r="R6">
-        <v>6815.692698773761</v>
+        <v>6192.410266768988</v>
       </c>
       <c r="S6">
-        <v>0.0009811160644328683</v>
+        <v>0.003055345111220706</v>
       </c>
       <c r="T6">
-        <v>0.0009811160644328683</v>
+        <v>0.003055345111220706</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>141.883735</v>
       </c>
       <c r="I7">
-        <v>0.004783971291446737</v>
+        <v>0.03290895798513831</v>
       </c>
       <c r="J7">
-        <v>0.004783971291446737</v>
+        <v>0.03290895798513832</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.403827</v>
+        <v>0.3331066666666667</v>
       </c>
       <c r="N7">
-        <v>1.211481</v>
+        <v>0.99932</v>
       </c>
       <c r="O7">
-        <v>0.005172149156755267</v>
+        <v>0.002125805913843485</v>
       </c>
       <c r="P7">
-        <v>0.005172149156755267</v>
+        <v>0.002125805913843485</v>
       </c>
       <c r="Q7">
-        <v>19.098827684615</v>
+        <v>15.75413934002222</v>
       </c>
       <c r="R7">
-        <v>171.889449161535</v>
+        <v>141.7872540602</v>
       </c>
       <c r="S7">
-        <v>2.474341308099765E-05</v>
+        <v>6.995805750323381E-05</v>
       </c>
       <c r="T7">
-        <v>2.474341308099765E-05</v>
+        <v>6.995805750323382E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>141.883735</v>
       </c>
       <c r="I8">
-        <v>0.004783971291446737</v>
+        <v>0.03290895798513831</v>
       </c>
       <c r="J8">
-        <v>0.004783971291446737</v>
+        <v>0.03290895798513832</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -936,22 +936,22 @@
         <v>0.412548</v>
       </c>
       <c r="O8">
-        <v>0.001761282092183924</v>
+        <v>0.0008775937418887864</v>
       </c>
       <c r="P8">
-        <v>0.001761282092183924</v>
+        <v>0.0008775937418887864</v>
       </c>
       <c r="Q8">
         <v>6.503761234086666</v>
       </c>
       <c r="R8">
-        <v>58.53385110678</v>
+        <v>58.53385110678001</v>
       </c>
       <c r="S8">
-        <v>8.425922965147137E-06</v>
+        <v>2.888069557983839E-05</v>
       </c>
       <c r="T8">
-        <v>8.425922965147137E-06</v>
+        <v>2.88806955798384E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>141.883735</v>
       </c>
       <c r="I9">
-        <v>0.004783971291446737</v>
+        <v>0.03290895798513831</v>
       </c>
       <c r="J9">
-        <v>0.004783971291446737</v>
+        <v>0.03290895798513832</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>23.43656066666667</v>
+        <v>91.40156066666667</v>
       </c>
       <c r="N9">
-        <v>70.309682</v>
+        <v>274.204682</v>
       </c>
       <c r="O9">
-        <v>0.3001715771588914</v>
+        <v>0.5833025803538128</v>
       </c>
       <c r="P9">
-        <v>0.3001715771588914</v>
+        <v>0.5833025803538128</v>
       </c>
       <c r="Q9">
-        <v>1108.422254313585</v>
+        <v>4322.798270738585</v>
       </c>
       <c r="R9">
-        <v>9975.800288822269</v>
+        <v>38905.18443664727</v>
       </c>
       <c r="S9">
-        <v>0.001436012207636426</v>
+        <v>0.01919588010948639</v>
       </c>
       <c r="T9">
-        <v>0.001436012207636426</v>
+        <v>0.01919588010948639</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>141.883735</v>
       </c>
       <c r="I10">
-        <v>0.004783971291446737</v>
+        <v>0.03290895798513831</v>
       </c>
       <c r="J10">
-        <v>0.004783971291446737</v>
+        <v>0.03290895798513832</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.4302976666666667</v>
+        <v>0.5759770000000001</v>
       </c>
       <c r="N10">
-        <v>1.290893</v>
+        <v>1.727931</v>
       </c>
       <c r="O10">
-        <v>0.005511181059720521</v>
+        <v>0.00367574544541637</v>
       </c>
       <c r="P10">
-        <v>0.005511181059720521</v>
+        <v>0.00367574544541637</v>
       </c>
       <c r="Q10">
-        <v>20.35074670281722</v>
+        <v>27.24058934469834</v>
       </c>
       <c r="R10">
-        <v>183.156720325355</v>
+        <v>245.165304102285</v>
       </c>
       <c r="S10">
-        <v>2.636533197166798E-05</v>
+        <v>0.0001209649524272708</v>
       </c>
       <c r="T10">
-        <v>2.636533197166798E-05</v>
+        <v>0.0001209649524272709</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>141.883735</v>
       </c>
       <c r="I11">
-        <v>0.004783971291446737</v>
+        <v>0.03290895798513831</v>
       </c>
       <c r="J11">
-        <v>0.004783971291446737</v>
+        <v>0.03290895798513832</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>53.66901333333334</v>
+        <v>64.24849033333334</v>
       </c>
       <c r="N11">
-        <v>161.00704</v>
+        <v>192.745471</v>
       </c>
       <c r="O11">
-        <v>0.6873838105324488</v>
+        <v>0.4100182745450386</v>
       </c>
       <c r="P11">
-        <v>0.6873838105324488</v>
+        <v>0.4100182745450385</v>
       </c>
       <c r="Q11">
-        <v>2538.253355166045</v>
+        <v>3038.605258868243</v>
       </c>
       <c r="R11">
-        <v>22844.2801964944</v>
+        <v>27347.44732981419</v>
       </c>
       <c r="S11">
-        <v>0.003288424415792498</v>
+        <v>0.01349327417014158</v>
       </c>
       <c r="T11">
-        <v>0.003288424415792498</v>
+        <v>0.01349327417014158</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>7027.984863333334</v>
+        <v>411.37678</v>
       </c>
       <c r="H12">
-        <v>21083.95459</v>
+        <v>1234.13034</v>
       </c>
       <c r="I12">
-        <v>0.7108991983381793</v>
+        <v>0.2862480573072345</v>
       </c>
       <c r="J12">
-        <v>0.7108991983381793</v>
+        <v>0.2862480573072345</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.403827</v>
+        <v>0.3331066666666667</v>
       </c>
       <c r="N12">
-        <v>1.211481</v>
+        <v>0.99932</v>
       </c>
       <c r="O12">
-        <v>0.005172149156755267</v>
+        <v>0.002125805913843485</v>
       </c>
       <c r="P12">
-        <v>0.005172149156755267</v>
+        <v>0.002125805913843485</v>
       </c>
       <c r="Q12">
-        <v>2838.09004340531</v>
+        <v>137.0323479298667</v>
       </c>
       <c r="R12">
-        <v>25542.81039064779</v>
+        <v>1233.2911313688</v>
       </c>
       <c r="S12">
-        <v>0.003676876689222809</v>
+        <v>0.0006085078130499278</v>
       </c>
       <c r="T12">
-        <v>0.003676876689222809</v>
+        <v>0.0006085078130499278</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>7027.984863333334</v>
+        <v>411.37678</v>
       </c>
       <c r="H13">
-        <v>21083.95459</v>
+        <v>1234.13034</v>
       </c>
       <c r="I13">
-        <v>0.7108991983381793</v>
+        <v>0.2862480573072345</v>
       </c>
       <c r="J13">
-        <v>0.7108991983381793</v>
+        <v>0.2862480573072345</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1246,22 +1246,22 @@
         <v>0.412548</v>
       </c>
       <c r="O13">
-        <v>0.001761282092183924</v>
+        <v>0.0008775937418887864</v>
       </c>
       <c r="P13">
-        <v>0.001761282092183924</v>
+        <v>0.0008775937418887864</v>
       </c>
       <c r="Q13">
-        <v>966.4603664661468</v>
+        <v>56.57088927848</v>
       </c>
       <c r="R13">
-        <v>8698.14329819532</v>
+        <v>509.13800350632</v>
       </c>
       <c r="S13">
-        <v>0.001252094027380942</v>
+        <v>0.0002512095037206516</v>
       </c>
       <c r="T13">
-        <v>0.001252094027380942</v>
+        <v>0.0002512095037206516</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>7027.984863333334</v>
+        <v>411.37678</v>
       </c>
       <c r="H14">
-        <v>21083.95459</v>
+        <v>1234.13034</v>
       </c>
       <c r="I14">
-        <v>0.7108991983381793</v>
+        <v>0.2862480573072345</v>
       </c>
       <c r="J14">
-        <v>0.7108991983381793</v>
+        <v>0.2862480573072345</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>23.43656066666667</v>
+        <v>91.40156066666667</v>
       </c>
       <c r="N14">
-        <v>70.309682</v>
+        <v>274.204682</v>
       </c>
       <c r="O14">
-        <v>0.3001715771588914</v>
+        <v>0.5833025803538128</v>
       </c>
       <c r="P14">
-        <v>0.3001715771588914</v>
+        <v>0.5833025803538128</v>
       </c>
       <c r="Q14">
-        <v>164711.7936139267</v>
+        <v>37600.47971402798</v>
       </c>
       <c r="R14">
-        <v>1482406.14252534</v>
+        <v>338404.3174262518</v>
       </c>
       <c r="S14">
-        <v>0.2133917335661628</v>
+        <v>0.1669692304485759</v>
       </c>
       <c r="T14">
-        <v>0.2133917335661628</v>
+        <v>0.1669692304485759</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>7027.984863333334</v>
+        <v>411.37678</v>
       </c>
       <c r="H15">
-        <v>21083.95459</v>
+        <v>1234.13034</v>
       </c>
       <c r="I15">
-        <v>0.7108991983381793</v>
+        <v>0.2862480573072345</v>
       </c>
       <c r="J15">
-        <v>0.7108991983381793</v>
+        <v>0.2862480573072345</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.4302976666666667</v>
+        <v>0.5759770000000001</v>
       </c>
       <c r="N15">
-        <v>1.290893</v>
+        <v>1.727931</v>
       </c>
       <c r="O15">
-        <v>0.005511181059720521</v>
+        <v>0.00367574544541637</v>
       </c>
       <c r="P15">
-        <v>0.005511181059720521</v>
+        <v>0.00367574544541637</v>
       </c>
       <c r="Q15">
-        <v>3024.125488060986</v>
+        <v>236.94356361406</v>
       </c>
       <c r="R15">
-        <v>27217.12939254887</v>
+        <v>2132.49207252654</v>
       </c>
       <c r="S15">
-        <v>0.003917894197251876</v>
+        <v>0.001052174992906351</v>
       </c>
       <c r="T15">
-        <v>0.003917894197251876</v>
+        <v>0.001052174992906351</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>7027.984863333334</v>
+        <v>411.37678</v>
       </c>
       <c r="H16">
-        <v>21083.95459</v>
+        <v>1234.13034</v>
       </c>
       <c r="I16">
-        <v>0.7108991983381793</v>
+        <v>0.2862480573072345</v>
       </c>
       <c r="J16">
-        <v>0.7108991983381793</v>
+        <v>0.2862480573072345</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>53.66901333333334</v>
+        <v>64.24849033333334</v>
       </c>
       <c r="N16">
-        <v>161.00704</v>
+        <v>192.745471</v>
       </c>
       <c r="O16">
-        <v>0.6873838105324488</v>
+        <v>0.4100182745450386</v>
       </c>
       <c r="P16">
-        <v>0.6873838105324488</v>
+        <v>0.4100182745450385</v>
       </c>
       <c r="Q16">
-        <v>377185.0133367016</v>
+        <v>26430.33707318779</v>
       </c>
       <c r="R16">
-        <v>3394665.120030314</v>
+        <v>237873.0336586901</v>
       </c>
       <c r="S16">
-        <v>0.4886605998581607</v>
+        <v>0.1173669345489816</v>
       </c>
       <c r="T16">
-        <v>0.4886605998581607</v>
+        <v>0.1173669345489816</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>118.3857016666667</v>
+        <v>173.2560603333334</v>
       </c>
       <c r="H17">
-        <v>355.157105</v>
+        <v>519.768181</v>
       </c>
       <c r="I17">
-        <v>0.01197502584967427</v>
+        <v>0.12055666021578</v>
       </c>
       <c r="J17">
-        <v>0.01197502584967427</v>
+        <v>0.12055666021578</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.403827</v>
+        <v>0.3331066666666667</v>
       </c>
       <c r="N17">
-        <v>1.211481</v>
+        <v>0.99932</v>
       </c>
       <c r="O17">
-        <v>0.005172149156755267</v>
+        <v>0.002125805913843485</v>
       </c>
       <c r="P17">
-        <v>0.005172149156755267</v>
+        <v>0.002125805913843485</v>
       </c>
       <c r="Q17">
-        <v>47.807342746945</v>
+        <v>57.71274873743556</v>
       </c>
       <c r="R17">
-        <v>430.266084722505</v>
+        <v>519.41473863692</v>
       </c>
       <c r="S17">
-        <v>6.193661985051531E-05</v>
+        <v>0.0002562800612399247</v>
       </c>
       <c r="T17">
-        <v>6.193661985051531E-05</v>
+        <v>0.0002562800612399247</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>118.3857016666667</v>
+        <v>173.2560603333334</v>
       </c>
       <c r="H18">
-        <v>355.157105</v>
+        <v>519.768181</v>
       </c>
       <c r="I18">
-        <v>0.01197502584967427</v>
+        <v>0.12055666021578</v>
       </c>
       <c r="J18">
-        <v>0.01197502584967427</v>
+        <v>0.12055666021578</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -1556,22 +1556,22 @@
         <v>0.412548</v>
       </c>
       <c r="O18">
-        <v>0.001761282092183924</v>
+        <v>0.0008775937418887864</v>
       </c>
       <c r="P18">
-        <v>0.001761282092183924</v>
+        <v>0.0008775937418887864</v>
       </c>
       <c r="Q18">
-        <v>16.27992815039333</v>
+        <v>23.82548039279867</v>
       </c>
       <c r="R18">
-        <v>146.51935335354</v>
+        <v>214.429323535188</v>
       </c>
       <c r="S18">
-        <v>2.109139858247087E-05</v>
+        <v>0.0001057997705483813</v>
       </c>
       <c r="T18">
-        <v>2.109139858247087E-05</v>
+        <v>0.0001057997705483813</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>118.3857016666667</v>
+        <v>173.2560603333334</v>
       </c>
       <c r="H19">
-        <v>355.157105</v>
+        <v>519.768181</v>
       </c>
       <c r="I19">
-        <v>0.01197502584967427</v>
+        <v>0.12055666021578</v>
       </c>
       <c r="J19">
-        <v>0.01197502584967427</v>
+        <v>0.12055666021578</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>23.43656066666667</v>
+        <v>91.40156066666667</v>
       </c>
       <c r="N19">
-        <v>70.309682</v>
+        <v>274.204682</v>
       </c>
       <c r="O19">
-        <v>0.3001715771588914</v>
+        <v>0.5833025803538128</v>
       </c>
       <c r="P19">
-        <v>0.3001715771588914</v>
+        <v>0.5833025803538128</v>
       </c>
       <c r="Q19">
-        <v>2774.553679176734</v>
+        <v>15835.87430942483</v>
       </c>
       <c r="R19">
-        <v>24970.98311259061</v>
+        <v>142522.8687848235</v>
       </c>
       <c r="S19">
-        <v>0.00359456239581522</v>
+        <v>0.0703210109827023</v>
       </c>
       <c r="T19">
-        <v>0.003594562395815221</v>
+        <v>0.07032101098270231</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>118.3857016666667</v>
+        <v>173.2560603333334</v>
       </c>
       <c r="H20">
-        <v>355.157105</v>
+        <v>519.768181</v>
       </c>
       <c r="I20">
-        <v>0.01197502584967427</v>
+        <v>0.12055666021578</v>
       </c>
       <c r="J20">
-        <v>0.01197502584967427</v>
+        <v>0.12055666021578</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.4302976666666667</v>
+        <v>0.5759770000000001</v>
       </c>
       <c r="N20">
-        <v>1.290893</v>
+        <v>1.727931</v>
       </c>
       <c r="O20">
-        <v>0.005511181059720521</v>
+        <v>0.00367574544541637</v>
       </c>
       <c r="P20">
-        <v>0.005511181059720521</v>
+        <v>0.00367574544541637</v>
       </c>
       <c r="Q20">
-        <v>50.94109119386278</v>
+        <v>99.79150586261235</v>
       </c>
       <c r="R20">
-        <v>458.469820744765</v>
+        <v>898.1235527635112</v>
       </c>
       <c r="S20">
-        <v>6.599653565238849E-05</v>
+        <v>0.0004431355947027622</v>
       </c>
       <c r="T20">
-        <v>6.59965356523885E-05</v>
+        <v>0.0004431355947027622</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>118.3857016666667</v>
+        <v>173.2560603333334</v>
       </c>
       <c r="H21">
-        <v>355.157105</v>
+        <v>519.768181</v>
       </c>
       <c r="I21">
-        <v>0.01197502584967427</v>
+        <v>0.12055666021578</v>
       </c>
       <c r="J21">
-        <v>0.01197502584967427</v>
+        <v>0.12055666021578</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>53.66901333333334</v>
+        <v>64.24849033333334</v>
       </c>
       <c r="N21">
-        <v>161.00704</v>
+        <v>192.745471</v>
       </c>
       <c r="O21">
-        <v>0.6873838105324488</v>
+        <v>0.4100182745450386</v>
       </c>
       <c r="P21">
-        <v>0.6873838105324488</v>
+        <v>0.4100182745450385</v>
       </c>
       <c r="Q21">
-        <v>6353.643801224356</v>
+        <v>11131.44031751758</v>
       </c>
       <c r="R21">
-        <v>57182.79421101921</v>
+        <v>100182.9628576583</v>
       </c>
       <c r="S21">
-        <v>0.008231438899773676</v>
+        <v>0.04943043380658661</v>
       </c>
       <c r="T21">
-        <v>0.008231438899773678</v>
+        <v>0.04943043380658661</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>2678.274088666667</v>
+        <v>794.4973246666667</v>
       </c>
       <c r="H22">
-        <v>8034.822266</v>
+        <v>2383.491974</v>
       </c>
       <c r="I22">
-        <v>0.2709144853877791</v>
+        <v>0.5528345953838922</v>
       </c>
       <c r="J22">
-        <v>0.2709144853877791</v>
+        <v>0.5528345953838923</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.403827</v>
+        <v>0.3331066666666667</v>
       </c>
       <c r="N22">
-        <v>1.211481</v>
+        <v>0.99932</v>
       </c>
       <c r="O22">
-        <v>0.005172149156755267</v>
+        <v>0.002125805913843485</v>
       </c>
       <c r="P22">
-        <v>0.005172149156755267</v>
+        <v>0.002125805913843485</v>
       </c>
       <c r="Q22">
-        <v>1081.559390403994</v>
+        <v>264.6523554952978</v>
       </c>
       <c r="R22">
-        <v>9734.034513635946</v>
+        <v>2381.87119945768</v>
       </c>
       <c r="S22">
-        <v>0.001401210127151189</v>
+        <v>0.001175219052244348</v>
       </c>
       <c r="T22">
-        <v>0.001401210127151189</v>
+        <v>0.001175219052244349</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>2678.274088666667</v>
+        <v>794.4973246666667</v>
       </c>
       <c r="H23">
-        <v>8034.822266</v>
+        <v>2383.491974</v>
       </c>
       <c r="I23">
-        <v>0.2709144853877791</v>
+        <v>0.5528345953838922</v>
       </c>
       <c r="J23">
-        <v>0.2709144853877791</v>
+        <v>0.5528345953838923</v>
       </c>
       <c r="K23">
         <v>1</v>
@@ -1866,22 +1866,22 @@
         <v>0.412548</v>
       </c>
       <c r="O23">
-        <v>0.001761282092183924</v>
+        <v>0.0008775937418887864</v>
       </c>
       <c r="P23">
-        <v>0.001761282092183924</v>
+        <v>0.0008775937418887864</v>
       </c>
       <c r="Q23">
-        <v>368.3055395770853</v>
+        <v>109.2560940988613</v>
       </c>
       <c r="R23">
-        <v>3314.749856193768</v>
+        <v>983.3048468897521</v>
       </c>
       <c r="S23">
-        <v>0.0004771568316267185</v>
+        <v>0.0004851641812085232</v>
       </c>
       <c r="T23">
-        <v>0.0004771568316267185</v>
+        <v>0.0004851641812085233</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>2678.274088666667</v>
+        <v>794.4973246666667</v>
       </c>
       <c r="H24">
-        <v>8034.822266</v>
+        <v>2383.491974</v>
       </c>
       <c r="I24">
-        <v>0.2709144853877791</v>
+        <v>0.5528345953838922</v>
       </c>
       <c r="J24">
-        <v>0.2709144853877791</v>
+        <v>0.5528345953838923</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>23.43656066666667</v>
+        <v>91.40156066666667</v>
       </c>
       <c r="N24">
-        <v>70.309682</v>
+        <v>274.204682</v>
       </c>
       <c r="O24">
-        <v>0.3001715771588914</v>
+        <v>0.5833025803538128</v>
       </c>
       <c r="P24">
-        <v>0.3001715771588914</v>
+        <v>0.5833025803538128</v>
       </c>
       <c r="Q24">
-        <v>62769.53316099771</v>
+        <v>72618.2954200247</v>
       </c>
       <c r="R24">
-        <v>564925.7984489794</v>
+        <v>653564.6587802223</v>
       </c>
       <c r="S24">
-        <v>0.08132082835403909</v>
+        <v>0.3224698459962804</v>
       </c>
       <c r="T24">
-        <v>0.08132082835403909</v>
+        <v>0.3224698459962804</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>2678.274088666667</v>
+        <v>794.4973246666667</v>
       </c>
       <c r="H25">
-        <v>8034.822266</v>
+        <v>2383.491974</v>
       </c>
       <c r="I25">
-        <v>0.2709144853877791</v>
+        <v>0.5528345953838922</v>
       </c>
       <c r="J25">
-        <v>0.2709144853877791</v>
+        <v>0.5528345953838923</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.4302976666666667</v>
+        <v>0.5759770000000001</v>
       </c>
       <c r="N25">
-        <v>1.290893</v>
+        <v>1.727931</v>
       </c>
       <c r="O25">
-        <v>0.005511181059720521</v>
+        <v>0.00367574544541637</v>
       </c>
       <c r="P25">
-        <v>0.005511181059720521</v>
+        <v>0.00367574544541637</v>
       </c>
       <c r="Q25">
-        <v>1152.45509104706</v>
+        <v>457.6121855695328</v>
       </c>
       <c r="R25">
-        <v>10372.09581942354</v>
+        <v>4118.509670125794</v>
       </c>
       <c r="S25">
-        <v>0.00149305878067306</v>
+        <v>0.002032079246050944</v>
       </c>
       <c r="T25">
-        <v>0.00149305878067306</v>
+        <v>0.002032079246050944</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>2678.274088666667</v>
+        <v>794.4973246666667</v>
       </c>
       <c r="H26">
-        <v>8034.822266</v>
+        <v>2383.491974</v>
       </c>
       <c r="I26">
-        <v>0.2709144853877791</v>
+        <v>0.5528345953838922</v>
       </c>
       <c r="J26">
-        <v>0.2709144853877791</v>
+        <v>0.5528345953838923</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>53.66901333333334</v>
+        <v>64.24849033333334</v>
       </c>
       <c r="N26">
-        <v>161.00704</v>
+        <v>192.745471</v>
       </c>
       <c r="O26">
-        <v>0.6873838105324488</v>
+        <v>0.4100182745450386</v>
       </c>
       <c r="P26">
-        <v>0.6873838105324488</v>
+        <v>0.4100182745450385</v>
       </c>
       <c r="Q26">
-        <v>143740.3277749725</v>
+        <v>51045.25368370553</v>
       </c>
       <c r="R26">
-        <v>1293662.949974753</v>
+        <v>459407.2831533498</v>
       </c>
       <c r="S26">
-        <v>0.186222231294289</v>
+        <v>0.2266722869081081</v>
       </c>
       <c r="T26">
-        <v>0.186222231294289</v>
+        <v>0.2266722869081081</v>
       </c>
     </row>
   </sheetData>
